--- a/账单.xlsx
+++ b/账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>列表名称</t>
   </si>
@@ -301,6 +301,18 @@
     <t>500  5/28 费用补助</t>
   </si>
   <si>
+    <t>合同汇总页面</t>
+  </si>
+  <si>
+    <t>报表：场地情况一览表     /Report/Reportm</t>
+  </si>
+  <si>
+    <t>报表：月平均出租率       /Report/ReportMonth</t>
+  </si>
+  <si>
+    <t>合计： 17*80 + 1500 = 2860</t>
+  </si>
+  <si>
     <t>sns系统</t>
   </si>
   <si>
@@ -322,6 +334,12 @@
     <t>2020/05/04   红包    140</t>
   </si>
   <si>
+    <t>2020/06/06   虾皮订单批量打印  1000</t>
+  </si>
+  <si>
+    <t>2020/06/10   尾期    6400     杰  -2000</t>
+  </si>
+  <si>
     <t>北京微音</t>
   </si>
   <si>
@@ -332,6 +350,9 @@
   </si>
   <si>
     <t>page34-page39的静态页面    500</t>
+  </si>
+  <si>
+    <t>20/06/24 中后期资金  2860</t>
   </si>
   <si>
     <t>千禧云静态页面</t>
@@ -349,8 +370,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -381,14 +402,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,8 +462,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,74 +544,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -545,13 +566,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,13 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,61 +716,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,85 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +771,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,30 +816,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -816,8 +828,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,31 +872,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,133 +890,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,16 +1400,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="111.466666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="132.791666666667" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1776,9 +1797,29 @@
         <v>84</v>
       </c>
     </row>
+    <row r="56" customHeight="1" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:2">
+      <c r="B59" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B61" s="8">
         <v>3000</v>
@@ -1787,7 +1828,7 @@
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="1"/>
       <c r="B62" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:2">
@@ -1804,7 +1845,7 @@
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B66" s="8">
         <v>16000</v>
@@ -1813,100 +1854,103 @@
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="1"/>
       <c r="B67" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="1"/>
       <c r="B68" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="1"/>
       <c r="B69" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="1"/>
       <c r="B70" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
       <c r="A71" s="1"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="72" customHeight="1" spans="1:2">
       <c r="A72" s="1"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="73" customHeight="1" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="2:2">
-      <c r="B74" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="2:2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B75" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:2">
-      <c r="A80" s="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:2">
+      <c r="B76" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:2">
+      <c r="B77" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:2">
+      <c r="B78" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:2">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:2">
       <c r="B80" s="8"/>
     </row>
     <row r="81" customHeight="1" spans="1:2">
       <c r="A81" s="1"/>
-      <c r="B81" s="8"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" customHeight="1" spans="1:2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="8">
+        <v>3000</v>
+      </c>
     </row>
     <row r="83" customHeight="1" spans="1:2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="8">
+        <v>3000</v>
+      </c>
     </row>
     <row r="84" customHeight="1" spans="1:2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="8">
+        <v>1000</v>
+      </c>
     </row>
     <row r="85" customHeight="1" spans="1:2">
       <c r="A85" s="1"/>
@@ -1967,6 +2011,26 @@
     <row r="99" customHeight="1" spans="1:2">
       <c r="A99" s="1"/>
       <c r="B99" s="8"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/账单.xlsx
+++ b/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>列表名称</t>
   </si>
@@ -313,6 +313,9 @@
     <t>合计： 17*80 + 1500 = 2860</t>
   </si>
   <si>
+    <t>用印，归档，入住，二装，二装验收审核弹窗    页面提取为单独页面，一个40</t>
+  </si>
+  <si>
     <t>sns系统</t>
   </si>
   <si>
@@ -322,6 +325,9 @@
     <t>海沧国际</t>
   </si>
   <si>
+    <t>一期： 16000 + 1000（额外功能） 二期：8000</t>
+  </si>
+  <si>
     <t>2020/03/17   前期30% 4800</t>
   </si>
   <si>
@@ -340,6 +346,9 @@
     <t>2020/06/10   尾期    6400     杰  -2000</t>
   </si>
   <si>
+    <t>2020/07/04   二期开发首款   3000</t>
+  </si>
+  <si>
     <t>北京微音</t>
   </si>
   <si>
@@ -356,6 +365,9 @@
   </si>
   <si>
     <t>千禧云静态页面</t>
+  </si>
+  <si>
+    <t>80个静态html页面设计： 3000</t>
   </si>
   <si>
     <t>换绑管理系统</t>
@@ -370,8 +382,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -408,6 +420,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -416,13 +533,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -431,104 +541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -566,12 +578,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -584,169 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,21 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -801,35 +798,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +826,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -872,151 +851,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="2"/>
@@ -1817,172 +1829,147 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:2">
-      <c r="A61" s="1" t="s">
+    <row r="60" customHeight="1" spans="2:2">
+      <c r="B60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="8">
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="8">
         <v>3000</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="8">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="1"/>
-      <c r="B70" s="8" t="s">
-        <v>95</v>
+      <c r="B70" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
       <c r="A71" s="1"/>
-      <c r="B71" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" customHeight="1" spans="1:2">
       <c r="A72" s="1"/>
-      <c r="B72" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" customHeight="1" spans="1:2">
       <c r="A73" s="1"/>
       <c r="B73" s="8"/>
     </row>
     <row r="74" customHeight="1" spans="1:2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="1"/>
+      <c r="B75" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="8" t="s">
+    </row>
+    <row r="80" customHeight="1" spans="1:2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="2:2">
-      <c r="B76" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:2">
-      <c r="B77" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="2:2">
-      <c r="B78" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="2:2">
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" customHeight="1" spans="2:2">
-      <c r="B80" s="8"/>
     </row>
     <row r="81" customHeight="1" spans="1:2">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="8">
-        <v>3000</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" customHeight="1" spans="1:2">
       <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:2">
+      <c r="B84" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:2">
+      <c r="B85" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:2">
-      <c r="A84" s="1" t="s">
+    </row>
+    <row r="86" customHeight="1" spans="2:2">
+      <c r="B86" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="8"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:2">
-      <c r="A87" s="1"/>
+    </row>
+    <row r="87" customHeight="1" spans="2:2">
       <c r="B87" s="8"/>
     </row>
-    <row r="88" customHeight="1" spans="1:2">
-      <c r="A88" s="1"/>
+    <row r="88" customHeight="1" spans="2:2">
       <c r="B88" s="8"/>
     </row>
     <row r="89" customHeight="1" spans="1:2">
       <c r="A89" s="1"/>
-      <c r="B89" s="8"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" customHeight="1" spans="1:2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="8"/>
+      <c r="A90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="91" customHeight="1" spans="1:2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="8">
+        <v>3000</v>
+      </c>
     </row>
     <row r="92" customHeight="1" spans="1:2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="8">
+        <v>1000</v>
+      </c>
     </row>
     <row r="93" customHeight="1" spans="1:2">
       <c r="A93" s="1"/>
@@ -2031,6 +2018,38 @@
     <row r="104" customHeight="1" spans="1:2">
       <c r="A104" s="1"/>
       <c r="B104" s="8"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/账单.xlsx
+++ b/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>列表名称</t>
   </si>
@@ -313,7 +313,10 @@
     <t>合计： 17*80 + 1500 = 2860</t>
   </si>
   <si>
-    <t>用印，归档，入住，二装，二装验收审核弹窗    页面提取为单独页面，一个40</t>
+    <t>用印，归档，入住，二装，二装验收审核弹窗    页面提取为单独页面，一个40 * 5 = 200</t>
+  </si>
+  <si>
+    <t>打印核销单</t>
   </si>
   <si>
     <t>sns系统</t>
@@ -420,6 +423,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -428,7 +455,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,62 +546,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,53 +559,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -584,13 +587,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,163 +731,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,45 +786,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,8 +828,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,151 +848,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,8 +1417,8 @@
   <sheetPr/>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="2"/>
@@ -1834,9 +1837,14 @@
         <v>89</v>
       </c>
     </row>
+    <row r="61" customHeight="1" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="8">
         <v>3000</v>
@@ -1845,7 +1853,7 @@
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="1"/>
       <c r="B70" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
@@ -1862,52 +1870,52 @@
     </row>
     <row r="74" customHeight="1" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
       <c r="A75" s="1"/>
       <c r="B75" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
       <c r="A76" s="1"/>
       <c r="B76" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
       <c r="A77" s="1"/>
       <c r="B77" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
       <c r="A78" s="1"/>
       <c r="B78" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
       <c r="A79" s="1"/>
       <c r="B79" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
       <c r="A80" s="1"/>
       <c r="B80" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
       <c r="A81" s="1"/>
       <c r="B81" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
@@ -1916,25 +1924,25 @@
     </row>
     <row r="83" customHeight="1" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:2">
       <c r="B84" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:2">
       <c r="B85" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:2">
       <c r="B86" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:2">
@@ -1949,15 +1957,15 @@
     </row>
     <row r="90" customHeight="1" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" s="8">
         <v>3000</v>
@@ -1965,7 +1973,7 @@
     </row>
     <row r="92" customHeight="1" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="8">
         <v>1000</v>

--- a/账单.xlsx
+++ b/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>列表名称</t>
   </si>
@@ -322,13 +322,19 @@
     <t>sns系统</t>
   </si>
   <si>
-    <t>5/22 500押金</t>
+    <t>合计：3000</t>
+  </si>
+  <si>
+    <t>2020/05/22 500押金</t>
   </si>
   <si>
     <t>海沧国际</t>
   </si>
   <si>
-    <t>一期： 16000 + 1000（额外功能） 二期：8000</t>
+    <t>合计：27000</t>
+  </si>
+  <si>
+    <t>一期： 16000 + 1000（额外功能） 二期：8000 + 2000（打包发货）</t>
   </si>
   <si>
     <t>2020/03/17   前期30% 4800</t>
@@ -352,19 +358,31 @@
     <t>2020/07/04   二期开发首款   3000</t>
   </si>
   <si>
+    <t>2020/07/28   二期开发尾款   5000</t>
+  </si>
+  <si>
     <t>北京微音</t>
   </si>
   <si>
-    <t>page4-page33静态页面制作     1350</t>
-  </si>
-  <si>
-    <t>目前为止到page39的静态页面转动态页面   5000</t>
-  </si>
-  <si>
-    <t>page34-page39的静态页面    500</t>
-  </si>
-  <si>
-    <t>20/06/24 中后期资金  2860</t>
+    <t>合计：9710</t>
+  </si>
+  <si>
+    <t>2019/11/08  静态页面一期  500</t>
+  </si>
+  <si>
+    <t>2019/11/22  静态页面一期  850</t>
+  </si>
+  <si>
+    <t>2020/12/13  辅助开发一期  3000</t>
+  </si>
+  <si>
+    <t>2020/03/13  辅助开发二期  2500</t>
+  </si>
+  <si>
+    <t>2020/06/24  辅助开发三期  2860</t>
+  </si>
+  <si>
+    <t>合计：7000</t>
   </si>
   <si>
     <t>千禧云静态页面</t>
@@ -417,7 +435,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,135 +577,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -581,19 +599,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,163 +743,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,50 +804,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,6 +838,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -879,6 +862,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -887,16 +885,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,137 +923,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,7 +1064,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1064,7 +1085,19 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1415,10 +1448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="2"/>
@@ -1499,37 +1532,41 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:2">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:2">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:2">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:2">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A13" s="2" t="s">
@@ -1567,21 +1604,23 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:2">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:2">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
@@ -1649,12 +1688,12 @@
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1686,7 +1725,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1694,7 +1733,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1737,53 +1776,53 @@
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="1"/>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1793,7 +1832,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1843,221 +1882,236 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="8">
-        <v>3000</v>
+      <c r="B69" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="1"/>
-      <c r="B70" s="10" t="s">
-        <v>92</v>
+      <c r="B70" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:2">
       <c r="A71" s="1"/>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" customHeight="1" spans="1:2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="73" customHeight="1" spans="1:2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="15" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="74" customHeight="1" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>94</v>
+      <c r="A74" s="1"/>
+      <c r="B74" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:2">
       <c r="A75" s="1"/>
-      <c r="B75" s="8" t="s">
-        <v>95</v>
+      <c r="B75" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:2">
       <c r="A76" s="1"/>
-      <c r="B76" s="8" t="s">
-        <v>96</v>
+      <c r="B76" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:2">
       <c r="A77" s="1"/>
-      <c r="B77" s="8" t="s">
-        <v>97</v>
+      <c r="B77" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:2">
       <c r="A78" s="1"/>
-      <c r="B78" s="8" t="s">
-        <v>98</v>
+      <c r="B78" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:2">
       <c r="A79" s="1"/>
-      <c r="B79" s="8" t="s">
-        <v>99</v>
+      <c r="B79" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:2">
       <c r="A80" s="1"/>
-      <c r="B80" s="8" t="s">
-        <v>100</v>
+      <c r="B80" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:2">
       <c r="A81" s="1"/>
-      <c r="B81" s="8" t="s">
-        <v>101</v>
+      <c r="B81" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:2">
       <c r="A82" s="1"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" customHeight="1" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="2:2">
-      <c r="B84" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:2">
-      <c r="B85" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>105</v>
       </c>
+      <c r="B83" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:2">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="86" customHeight="1" spans="2:2">
-      <c r="B86" s="8" t="s">
-        <v>106</v>
+      <c r="B86" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:2">
-      <c r="B87" s="8"/>
+      <c r="B87" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="88" customHeight="1" spans="2:2">
-      <c r="B88" s="8"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B88" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:2">
+      <c r="B89" s="9"/>
     </row>
     <row r="90" customHeight="1" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>108</v>
+      <c r="A90" s="11"/>
+      <c r="B90" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" s="8">
-        <v>3000</v>
+        <v>113</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="8">
+        <v>115</v>
+      </c>
+      <c r="B92" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="8"/>
     </row>
     <row r="94" customHeight="1" spans="1:2">
       <c r="A94" s="1"/>
-      <c r="B94" s="8"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" customHeight="1" spans="1:2">
       <c r="A95" s="1"/>
-      <c r="B95" s="8"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" customHeight="1" spans="1:2">
       <c r="A96" s="1"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" customHeight="1" spans="1:2">
       <c r="A97" s="1"/>
-      <c r="B97" s="8"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" customHeight="1" spans="1:2">
       <c r="A98" s="1"/>
-      <c r="B98" s="8"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" customHeight="1" spans="1:2">
       <c r="A99" s="1"/>
-      <c r="B99" s="8"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" customHeight="1" spans="1:2">
       <c r="A100" s="1"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" customHeight="1" spans="1:2">
       <c r="A101" s="1"/>
-      <c r="B101" s="8"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" customHeight="1" spans="1:2">
       <c r="A102" s="1"/>
-      <c r="B102" s="8"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" customHeight="1" spans="1:2">
       <c r="A103" s="1"/>
-      <c r="B103" s="8"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" customHeight="1" spans="1:2">
       <c r="A104" s="1"/>
-      <c r="B104" s="8"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" customHeight="1" spans="1:2">
       <c r="A105" s="1"/>
-      <c r="B105" s="8"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" customHeight="1" spans="1:2">
       <c r="A106" s="1"/>
-      <c r="B106" s="8"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" customHeight="1" spans="1:2">
       <c r="A107" s="1"/>
-      <c r="B107" s="8"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" customHeight="1" spans="1:2">
       <c r="A108" s="1"/>
-      <c r="B108" s="8"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" customHeight="1" spans="1:2">
       <c r="A109" s="1"/>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" customHeight="1" spans="1:2">
       <c r="A110" s="1"/>
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" customHeight="1" spans="1:2">
       <c r="A111" s="1"/>
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" customHeight="1" spans="1:2">
       <c r="A112" s="1"/>
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
